--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="14.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24094618552374619</v>
+        <v>0.24080207187219643</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28427819787347169</v>
+        <v>0.28436211342840439</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0013402292145429677</v>
+        <v>0.0012439662374659714</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0037889994458148893</v>
+        <v>-0.0037817599196970104</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0026062180858059084</v>
+        <v>-0.0025283334682744876</v>
       </c>
       <c r="G3" s="0">
-        <v>0.015097587311249154</v>
+        <v>0.015146769417247196</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00057928361492928294</v>
+        <v>-0.00057838198981614408</v>
       </c>
       <c r="I3" s="0">
-        <v>0.033801930358175511</v>
+        <v>0.033991010788495674</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>6.6766612307950224e-05</v>
+        <v>6.6770490786766112e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28220772266371208</v>
+        <v>0.28208020537492945</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0032376399355991759</v>
+        <v>-0.0035241831576743455</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0015689660086845207</v>
+        <v>-0.0015560534800836596</v>
       </c>
       <c r="F4" s="0">
-        <v>-7.7426492564115757e-05</v>
+        <v>-7.8031851677072832e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0019351271466367035</v>
+        <v>-0.0019327886606760635</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0045128965940593934</v>
+        <v>0.0045734133020846612</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.9639384880579047e-05</v>
+        <v>-1.9697362304567411e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00025542716454607373</v>
+        <v>0.00025543315685611079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.21118733951251933</v>
+        <v>0.2118210139814253</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00078730530096737935</v>
+        <v>0.00017098688669906457</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.021327128125990379</v>
+        <v>-0.021669175339521635</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0059972711830854628</v>
+        <v>-0.0061503162577170624</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0029198895211829355</v>
+        <v>0.0031600996313077712</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.05604137488368012</v>
+        <v>-0.055992514771728279</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00063200185474940611</v>
+        <v>-0.00062809303110503947</v>
       </c>
       <c r="I5" s="0">
-        <v>0.010731672550850294</v>
+        <v>0.010736702060784356</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00011313612524677108</v>
+        <v>0.00011311942777669781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37871817174340416</v>
+        <v>0.37974679247291698</v>
       </c>
       <c r="C6" s="0">
-        <v>0.21334443265068179</v>
+        <v>0.21468273181312142</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0033789270405524068</v>
+        <v>0.0033733487000692638</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00017505046289315734</v>
+        <v>0.00018191970818550758</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00069869584423049242</v>
+        <v>0.00070713972826768798</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0500848069774288</v>
+        <v>-0.051037856639376288</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.8533209955789998e-05</v>
+        <v>1.8495181224098545e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.38591072502269214</v>
+        <v>0.38619987317568699</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.040204025309234906</v>
+        <v>-0.040400119627963769</v>
       </c>
       <c r="E7" s="0">
-        <v>0.012342786954494185</v>
+        <v>0.011964863103795773</v>
       </c>
       <c r="F7" s="0">
-        <v>0.012658677282629711</v>
+        <v>0.012449969319882239</v>
       </c>
       <c r="G7" s="0">
-        <v>0.015593115834815392</v>
+        <v>0.015643289302739314</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0047681254213007892</v>
+        <v>0.0047611922848377463</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.002033873095282801</v>
+        <v>0.002033886319478706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31808962084937442</v>
+        <v>0.31795258949313859</v>
       </c>
       <c r="C8" s="0">
-        <v>0.005113368003438333</v>
+        <v>0.0037618529577373543</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.01545286950442412</v>
+        <v>-0.015389088370375149</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.015405444488849894</v>
+        <v>-0.015394683700806744</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-3.3402636028691631e-05</v>
+        <v>-3.2896263434469691e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.043927054307796205</v>
+        <v>-0.04307682182660006</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0018842987603428507</v>
+        <v>0.0018843535209306927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.06885817027519342</v>
+        <v>-0.071497957548829705</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.23840030890923083</v>
+        <v>-0.23930056372694083</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.006408437579805853</v>
+        <v>-0.0064611883494527936</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.13825916220252646</v>
+        <v>-0.13977766188943633</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.008705944306807066</v>
+        <v>-0.0087111813587890073</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0017654183961398613</v>
+        <v>-0.0017849062377760128</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0047746607425412533</v>
+        <v>0.0047681202030623376</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0018168195274009258</v>
+        <v>0.0018168343173642909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.046433417111353903</v>
+        <v>0.054566760516671781</v>
       </c>
       <c r="C10" s="0">
-        <v>0.16627865679398982</v>
+        <v>0.17759045202830737</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0020475952942650526</v>
+        <v>0.0020123662740876092</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0019351123776234474</v>
+        <v>0.0018983461025653334</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00053485562364508153</v>
+        <v>-0.00053475956616136713</v>
       </c>
       <c r="I10" s="0">
-        <v>0.040476439553013041</v>
+        <v>0.040294149890125641</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10460181508185677</v>
+        <v>-0.10488631362318888</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0096904540731578143</v>
+        <v>0.0096904769597657703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.29908633578388283</v>
+        <v>0.30558649411408689</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.41217356707150815</v>
+        <v>0.41040944622830727</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.082151305157122878</v>
+        <v>-0.08157479969732763</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.17672202658548417</v>
+        <v>-0.17758697045414956</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.033460783624977716</v>
+        <v>-0.033618800681720573</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00078300217652895647</v>
+        <v>-0.00078157726851500135</v>
       </c>
       <c r="I11" s="0">
-        <v>0.10125963445734582</v>
+        <v>0.10183556307617514</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.032336834687788668</v>
+        <v>0.032336872394645472</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.086829374710636814</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.12507595826134951</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0019631484652427259</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0018500681955330132</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00024982997216308985</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.042613970191810242</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.047004144317351504</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="14.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24080207187219643</v>
+        <v>0.23928950289414755</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28436211342840439</v>
+        <v>0.28304107315567217</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0012439662374659714</v>
+        <v>0.0013022012903820173</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0037817599196970104</v>
+        <v>-0.0037729183152148465</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0025283334682744876</v>
+        <v>-0.0026387248810517743</v>
       </c>
       <c r="G3" s="0">
-        <v>0.015146769417247196</v>
+        <v>0.015230776776233652</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00057838198981614408</v>
+        <v>-0.00057752214169020158</v>
       </c>
       <c r="I3" s="0">
-        <v>0.033991010788495674</v>
+        <v>0.034140991001178476</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>6.6770490786766112e-05</v>
+        <v>6.6766531687301178e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28208020537492945</v>
+        <v>0.2811181436479282</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0035241831576743455</v>
+        <v>-0.0038894130026758469</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0015560534800836596</v>
+        <v>-0.001553984799450907</v>
       </c>
       <c r="F4" s="0">
-        <v>-7.8031851677072832e-05</v>
+        <v>-7.5608803606927379e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0019327886606760635</v>
+        <v>-0.001910445295957448</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0045734133020846612</v>
+        <v>0.005270763912333427</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.9697362304567411e-05</v>
+        <v>-1.9678155514837028e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00025543315685611079</v>
+        <v>0.0002554366371285699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2118210139814253</v>
+        <v>0.21254890491172435</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00017098688669906457</v>
+        <v>0.0011566179341363511</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.021669175339521635</v>
+        <v>-0.021178943630080369</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0061503162577170624</v>
+        <v>-0.0059957769133013412</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0031600996313077712</v>
+        <v>0.0032317179836242205</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.055992514771728279</v>
+        <v>-0.05603485882116279</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00062809303110503947</v>
+        <v>-0.0006335145586625064</v>
       </c>
       <c r="I5" s="0">
-        <v>0.010736702060784356</v>
+        <v>0.010772418939336576</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00011311942777669781</v>
+        <v>0.00011310032990602403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37974679247291698</v>
+        <v>0.38052624694262122</v>
       </c>
       <c r="C6" s="0">
-        <v>0.21468273181312142</v>
+        <v>0.21541163429285359</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0033733487000692638</v>
+        <v>0.0033812611857933789</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00018191970818550758</v>
+        <v>0.00018536407706748226</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00070713972826768798</v>
+        <v>0.00071455176002807727</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.051037856639376288</v>
+        <v>-0.05173399032442829</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.8495181224098545e-05</v>
+        <v>1.8521039582636289e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.38619987317568699</v>
+        <v>0.38700436219403828</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.040400119627963769</v>
+        <v>-0.039433640058723643</v>
       </c>
       <c r="E7" s="0">
-        <v>0.011964863103795773</v>
+        <v>0.011255362332847034</v>
       </c>
       <c r="F7" s="0">
-        <v>0.012449969319882239</v>
+        <v>0.012213071770575738</v>
       </c>
       <c r="G7" s="0">
-        <v>0.015643289302739314</v>
+        <v>0.015655705952404099</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0047611922848377463</v>
+        <v>0.0047537237669548526</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.002033886319478706</v>
+        <v>0.0020338914873589964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31795258949313859</v>
+        <v>0.30944572540643123</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0037618529577373543</v>
+        <v>-0.0061977364785442291</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.015389088370375149</v>
+        <v>-0.015444070720146993</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.015394683700806744</v>
+        <v>-0.01539965926224942</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-3.2896263434469691e-05</v>
+        <v>-3.2936524583849217e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.04307682182660006</v>
+        <v>-0.042368641316145511</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0018843535209306927</v>
+        <v>0.0018844075140629912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.071497957548829705</v>
+        <v>-0.076860098531748466</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.23930056372694083</v>
+        <v>-0.23660942771972215</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0064611883494527936</v>
+        <v>-0.0064985671624815918</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.13977766188943633</v>
+        <v>-0.13933376682274978</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0087111813587890073</v>
+        <v>-0.0086639881630811641</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0017849062377760128</v>
+        <v>-0.0017930364635614995</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0047681202030623376</v>
+        <v>0.0047762053931570663</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0018168343173642909</v>
+        <v>0.0018167570002594058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.054566760516671781</v>
+        <v>0.042349122570264908</v>
       </c>
       <c r="C10" s="0">
-        <v>0.17759045202830737</v>
+        <v>0.16934047813635955</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0020123662740876092</v>
+        <v>0.0020666851348679089</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0018983461025653334</v>
+        <v>0.0019565271250611051</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00053475956616136713</v>
+        <v>-0.00053472128823073306</v>
       </c>
       <c r="I10" s="0">
-        <v>0.040294149890125641</v>
+        <v>0.040669630740328096</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10488631362318888</v>
+        <v>-0.10397980671765224</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0096904769597657703</v>
+        <v>0.0096904279712796831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30558649411408689</v>
+        <v>0.30074904715308964</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.41040944622830727</v>
+        <v>0.41163317234858521</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.08157479969732763</v>
+        <v>-0.081603077833608012</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.17758697045414956</v>
+        <v>-0.17197685529951598</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.033618800681720573</v>
+        <v>-0.033565423823644289</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00078157726851500135</v>
+        <v>-0.00075544276380488679</v>
       </c>
       <c r="I11" s="0">
-        <v>0.10183556307617514</v>
+        <v>0.10233071850058882</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.032336872394645472</v>
+        <v>0.032336833454223862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.086829374710636814</v>
+        <v>0.026349195434731854</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.12507595826134951</v>
+        <v>-0.13347855249124074</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0019631484652427259</v>
+        <v>-0.0017262086988622078</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0018500681955330132</v>
+        <v>-0.02204046006846383</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00024982997216308985</v>
+        <v>-0.019599788995172479</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.042613970191810242</v>
+        <v>-0.050738049414353698</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.047004144317351504</v>
+        <v>-0.046816792050264844</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.030257329184469939</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.36667108373520957</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.14096023490241416</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.44377310942071213</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.011050795787739497</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.0009052985004630226</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.01600723560061244</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.035215014486524754</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.15765537735259688</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.073453207032149387</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.00030485154798572095</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0002358235178644304</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>5.7369683910861007e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.053915058520164337</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00015618032984535124</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.23928950289414755</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28304107315567217</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.2811181436479282</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.21254890491172435</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.38052624694262122</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.38700436219403828</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.30944572540643123</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.076860098531748466</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.042349122570264908</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.30074904715308964</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.026349195434731854</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>-0.030257329184469939</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.15765537735259688</v>
+        <v>-0.16561603418070109</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.073453207032149387</v>
+        <v>-0.068781892367967043</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00030485154798572095</v>
+        <v>0.00025957365604573968</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0002358235178644304</v>
+        <v>-0.0015020222566813088</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>5.7369683910861007e-05</v>
+        <v>-0.0076712775315075513</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.053915058520164337</v>
+        <v>-0.049691733990653207</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00015618032984535124</v>
+        <v>-0.0079713525054677936</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.38390957489068295</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.071533922285347051</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.028841785894456365</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.18070060320086728</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0065046105089993228</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.43518166979274048</v>
       </c>
     </row>
   </sheetData>
